--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsiqueira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\src\xlsx-git-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:G9"/>
+  <dimension ref="E9:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -402,6 +402,9 @@
       <c r="G9" t="s">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
